--- a/Test Data Driven/AI-Generated/Common/fillShippingInfoAndProceedToPayment.xlsx
+++ b/Test Data Driven/AI-Generated/Common/fillShippingInfoAndProceedToPayment.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -624,6 +624,132 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>15 only address</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>15 only city</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15 only first</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>15 only last</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>{{address}}</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>{{address}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>15 address</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>15 HCM city</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15 silicon first</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>15 silicon last</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>{{ip_address}}</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1515</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>151515</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>f03 address</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>03 city</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>f03 first</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>f03 last</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0303</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>030303</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Test Data Driven/AI-Generated/Common/fillShippingInfoAndProceedToPayment.xlsx
+++ b/Test Data Driven/AI-Generated/Common/fillShippingInfoAndProceedToPayment.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -750,6 +750,132 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>15 only address</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>15 only city</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15 only first</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>15 only last</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>{{address}}</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>{{address}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>15 address</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>15 HCM city</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15 silicon first</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>15 silicon last</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>{{ip_address}}</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1515</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>151515</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>f03 address</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>03 city</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>f03 first</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>f03 last</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0303</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>030303</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Test Data Driven/AI-Generated/Common/fillShippingInfoAndProceedToPayment.xlsx
+++ b/Test Data Driven/AI-Generated/Common/fillShippingInfoAndProceedToPayment.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -582,6 +582,90 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ddaddress</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>dd city</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>ddirst</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>{{address}}</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>{{address}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>address</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">H C M City </t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>firsst</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>last</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Test Data Driven/AI-Generated/Common/fillShippingInfoAndProceedToPayment.xlsx
+++ b/Test Data Driven/AI-Generated/Common/fillShippingInfoAndProceedToPayment.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,9 +449,9 @@
     <col width="15" customWidth="1" min="1" max="1"/>
     <col width="13" customWidth="1" min="2" max="2"/>
     <col width="13" customWidth="1" min="3" max="3"/>
-    <col width="17" customWidth="1" min="4" max="4"/>
-    <col width="16" customWidth="1" min="5" max="5"/>
-    <col width="13" customWidth="1" min="6" max="6"/>
+    <col width="18" customWidth="1" min="4" max="4"/>
+    <col width="17" customWidth="1" min="5" max="5"/>
+    <col width="16" customWidth="1" min="6" max="6"/>
     <col width="13" customWidth="1" min="7" max="7"/>
     <col width="15" customWidth="1" min="8" max="8"/>
   </cols>
@@ -666,6 +666,90 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>f03 address</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>03 city</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>f03 first</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>f03 last</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0303</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>030303</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>15 address</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>15 HCM city</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15 silicon first</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>15 silicon last</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>{{ip_address}}</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1515</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>151515</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
